--- a/data/Assets Catalog.xlsx
+++ b/data/Assets Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10583251_polimi_it/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78599693-FE7F-47BB-B591-424DC514E106}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7F12E8-8B91-4115-82B2-DB5CE1E6589C}"/>
   <bookViews>
-    <workbookView xWindow="49845" yWindow="1035" windowWidth="22800" windowHeight="13740" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
+    <workbookView xWindow="49845" yWindow="1035" windowWidth="22800" windowHeight="13740" activeTab="1" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
   </bookViews>
   <sheets>
     <sheet name="Electric Network" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
   <si>
     <t>Asset type</t>
   </si>
@@ -291,9 +291,6 @@
     <t>29.7189, -95.2319</t>
   </si>
   <si>
-    <t>Channel</t>
-  </si>
-  <si>
     <t>Pasadena</t>
   </si>
   <si>
@@ -304,6 +301,27 @@
   </si>
   <si>
     <t>29.72475, -95.17648 </t>
+  </si>
+  <si>
+    <t>Channel Energy</t>
+  </si>
+  <si>
+    <t>Channelview</t>
+  </si>
+  <si>
+    <t>29.836952, -95.12174</t>
+  </si>
+  <si>
+    <t>Elmax</t>
+  </si>
+  <si>
+    <t>30.021922, -95.090427</t>
+  </si>
+  <si>
+    <t>Bacliff</t>
+  </si>
+  <si>
+    <t>29.49233, -94.98483 </t>
   </si>
 </sst>
 </file>
@@ -701,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C4469-A94B-4180-9AB2-255BB82391F3}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A15:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1155,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D46A6-010E-4C97-A0C3-C400E324B149}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1400,7 +1418,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -1409,7 +1427,7 @@
         <v>1176</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" s="1">
         <v>2014</v>
@@ -1420,7 +1438,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1429,7 +1447,7 @@
         <v>815</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="1">
         <v>1998</v>
@@ -1440,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -1460,19 +1478,19 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>1630</v>
+        <v>918</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1">
-        <v>1986</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -1480,19 +1498,19 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>872</v>
+        <v>819</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G16" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
@@ -1500,19 +1518,19 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="1">
-        <v>1344</v>
+        <v>1036</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1">
-        <v>1978</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.45">
@@ -1520,19 +1538,19 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>888</v>
+        <v>1630</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="G18" s="1">
-        <v>2011</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.45">
@@ -1540,16 +1558,16 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>1400</v>
+        <v>872</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G19" s="1">
         <v>2027</v>
@@ -1557,11 +1575,71 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1344</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1978</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>888</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/Assets Catalog.xlsx
+++ b/data/Assets Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10583251_polimi_it/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10499872_polimi_it/Documents/Python/Cursor/Budget_allocation_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="328" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7F12E8-8B91-4115-82B2-DB5CE1E6589C}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEAF9BBA-15E8-724D-A1ED-74BA3DFC2065}"/>
   <bookViews>
-    <workbookView xWindow="49845" yWindow="1035" windowWidth="22800" windowHeight="13740" activeTab="1" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
   </bookViews>
   <sheets>
     <sheet name="Electric Network" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="100">
   <si>
     <t>Asset type</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Power (MWe)</t>
   </si>
   <si>
-    <t>Goal Power Station</t>
-  </si>
-  <si>
     <t>Solar Power Station</t>
   </si>
   <si>
@@ -322,13 +319,31 @@
   </si>
   <si>
     <t>29.49233, -94.98483 </t>
+  </si>
+  <si>
+    <t>Location GPS</t>
+  </si>
+  <si>
+    <t>Easting (m)</t>
+  </si>
+  <si>
+    <t>Northing (m)</t>
+  </si>
+  <si>
+    <t>outside of the map</t>
+  </si>
+  <si>
+    <t>No flood (5m)</t>
+  </si>
+  <si>
+    <t>Coal Power Station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,13 +366,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -372,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,6 +421,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -717,23 +779,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C4469-A94B-4180-9AB2-255BB82391F3}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A15:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" customWidth="1"/>
+    <col min="1" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -752,445 +813,580 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="9">
         <v>2696</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="8">
+        <v>244502.22700000001</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3263735.4890000001</v>
+      </c>
+      <c r="I2" s="9">
         <v>1977</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1">
         <v>841</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>472219.745</v>
+      </c>
+      <c r="H3">
+        <v>3350333.29</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="1">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="9">
+        <v>315</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1">
-        <v>315</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="8">
+        <v>377268.61499999999</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3352529.8659999999</v>
+      </c>
+      <c r="I4" s="9">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1">
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9">
+        <v>409</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8">
+        <v>282964.652</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3354562.8560000001</v>
+      </c>
+      <c r="I5" s="9">
         <v>2027</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="1">
-        <v>409</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="1">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="6">
+        <v>150</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="G6" s="5">
+        <v>329137.33299999998</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3394254.3119999999</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="6">
+        <v>140</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="5">
+        <v>357346.49200000003</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3413398.73</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2026</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9">
         <v>150</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1">
-        <v>140</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="8">
+        <v>356656.51699999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3320856.71</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2025</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1">
-        <v>150</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9">
+        <v>109</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1">
-        <v>109</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="8">
+        <v>321434.38299999997</v>
+      </c>
+      <c r="H9" s="8">
+        <v>3315671.4759999998</v>
+      </c>
+      <c r="I9" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1">
         <v>428</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>280600.32900000003</v>
+      </c>
+      <c r="H10">
+        <v>3239249.39</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9">
+        <v>538</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" s="8">
+        <v>264056.06400000001</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3235743.32</v>
+      </c>
+      <c r="I11" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1450</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5">
+        <v>194397.42199999999</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3229708.6540000001</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6">
+        <v>721</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="5">
+        <v>211431.37400000001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3232827.1189999999</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1071</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="8">
+        <v>234703.247</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3256488.0380000002</v>
+      </c>
+      <c r="I14" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9">
+        <v>620</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="8">
+        <v>231466.17499999999</v>
+      </c>
+      <c r="H15" s="8">
+        <v>3230851.7960000001</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="6">
+        <v>845</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="5">
+        <v>188893.77799999999</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3273613.2289999998</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1">
-        <v>538</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="5">
+        <v>205442.32</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3235021.6039999998</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="1">
-        <v>1450</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1">
-        <v>721</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1071</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1">
-        <v>620</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1">
-        <v>845</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" s="6">
+        <v>314</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1">
-        <v>314</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
+        <v>215477.073</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3196837.5389999999</v>
+      </c>
+      <c r="I18" s="6">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="19" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1659</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="11">
+        <v>352215.60499999998</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3192941.72</v>
+      </c>
+      <c r="I19" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1567</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="G20" s="11">
+        <v>331064.61700000003</v>
+      </c>
+      <c r="H20" s="11">
+        <v>3137635.929</v>
+      </c>
+      <c r="I20" s="12">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="12">
         <v>1659</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F21" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="11">
+        <v>445207.18900000001</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3251671.531</v>
+      </c>
+      <c r="I21" s="12">
         <v>2027</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1567</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1659</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1D46A6-010E-4C97-A0C3-C400E324B149}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21.06640625" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="23.73046875" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1207,13 +1403,19 @@
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -1229,11 +1431,18 @@
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
+        <v>415337.81900000002</v>
+      </c>
+      <c r="H2">
+        <v>3321791.5079999999</v>
+      </c>
+      <c r="I2" s="1">
         <v>1962</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -1249,111 +1458,153 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
+        <v>471235.45799999998</v>
+      </c>
+      <c r="H3">
+        <v>3349033.5469999998</v>
+      </c>
+      <c r="I3" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
         <v>1530</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="11">
+        <v>313798.67800000001</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3292636.8509999998</v>
+      </c>
+      <c r="I4" s="12">
         <v>1970</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
         <v>1256</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
+        <v>244502.22700000001</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3263735.4890000001</v>
+      </c>
+      <c r="I5" s="9">
         <v>1968</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9">
         <v>1542</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="8">
+        <v>257274.5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3370348.0780000002</v>
+      </c>
+      <c r="I6" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
         <v>940</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
+        <v>220212.67800000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3388058.662</v>
+      </c>
+      <c r="I7" s="6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="J7" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
         <v>1618</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="8">
+        <v>255746.81200000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3315018.6230000001</v>
+      </c>
+      <c r="I8" s="9">
         <v>1975</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J8" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -1369,156 +1620,204 @@
       <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
+        <v>429265.78899999999</v>
+      </c>
+      <c r="H9">
+        <v>3347691.7760000001</v>
+      </c>
+      <c r="I9" s="1">
         <v>2003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="9">
         <v>663</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="8">
+        <v>379554.55699999997</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3353114.03</v>
+      </c>
+      <c r="I10" s="9">
         <v>2005</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="11" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="9">
         <v>1090</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="8">
+        <v>306767.93900000001</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3366966.79</v>
+      </c>
+      <c r="I11" s="9">
         <v>2028</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1176</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1176</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="8">
+        <v>293518.03200000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3288936.949</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="9">
+        <v>815</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="8">
+        <v>289480.745</v>
+      </c>
+      <c r="H13" s="8">
+        <v>3290269.2409999999</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9">
+        <v>924</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="8">
+        <v>284106.364</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3289723.1170000001</v>
+      </c>
+      <c r="I14" s="9">
         <v>2014</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>815</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>924</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12">
+        <v>918</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>918</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="11">
+        <v>295005.56199999998</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3302607.5269999998</v>
+      </c>
+      <c r="I15" s="12">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="1">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="9">
+        <v>819</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>819</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="8">
+        <v>298404.98300000001</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3323055.0159999998</v>
+      </c>
+      <c r="I16" s="9">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>93</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1527,18 +1826,24 @@
         <v>1036</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="1">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>307580.92099999997</v>
+      </c>
+      <c r="H17">
+        <v>3264174.781</v>
+      </c>
+      <c r="I17" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -1547,33 +1852,45 @@
         <v>1630</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="1">
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <v>312418.91200000001</v>
+      </c>
+      <c r="H18">
+        <v>3251429.1749999998</v>
+      </c>
+      <c r="I18" s="1">
         <v>1986</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
+    <row r="19" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="9">
         <v>872</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="F19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="8">
+        <v>234973.85</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3217436.932</v>
+      </c>
+      <c r="I19" s="9">
         <v>2027</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>33</v>
       </c>
@@ -1589,11 +1906,17 @@
       <c r="F20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
+        <v>265455.09700000001</v>
+      </c>
+      <c r="H20">
+        <v>3209409.7080000001</v>
+      </c>
+      <c r="I20" s="1">
         <v>1978</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>33</v>
       </c>
@@ -1609,11 +1932,17 @@
       <c r="F21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
+        <v>408175.647</v>
+      </c>
+      <c r="H21">
+        <v>3306805.8990000002</v>
+      </c>
+      <c r="I21" s="1">
         <v>2011</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -1629,16 +1958,22 @@
       <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
+        <v>468685.46100000001</v>
+      </c>
+      <c r="H22">
+        <v>3293817.284</v>
+      </c>
+      <c r="I22" s="1">
         <v>2027</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>35</v>
       </c>

--- a/data/Assets Catalog.xlsx
+++ b/data/Assets Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10499872_polimi_it/Documents/Python/Cursor/Budget_allocation_optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="379" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEAF9BBA-15E8-724D-A1ED-74BA3DFC2065}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="8_{A201B856-5134-4BEB-B38A-07CD78C15265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCE134D3-E0F6-9D45-B64C-357CEF629046}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19480" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19320" xr2:uid="{76868B64-D7DA-4BDE-9DFD-E26DA47C7791}"/>
   </bookViews>
   <sheets>
     <sheet name="Electric Network" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
